--- a/biology/Botanique/Parc_d'État_de_l'East_River/Parc_d'État_de_l'East_River.xlsx
+++ b/biology/Botanique/Parc_d'État_de_l'East_River/Parc_d'État_de_l'East_River.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_d%27%C3%89tat_de_l%27East_River</t>
+          <t>Parc_d'État_de_l'East_River</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc d'État de l'East River (anglais : East River State Park) est un parc d'État[2] situé dans le quartier de Williamsburg et l'arrondissement de Brooklyn, à New York. D'une superficie de 4,5 ha (11 acres), le parc longe l'East River entre les 7e, 8e et 9e rues nord, et offre une vue dégagée sur le pont de Williamsburg et le quartier de Midtown.
+Le parc d'État de l'East River (anglais : East River State Park) est un parc d'État situé dans le quartier de Williamsburg et l'arrondissement de Brooklyn, à New York. D'une superficie de 4,5 ha (11 acres), le parc longe l'East River entre les 7e, 8e et 9e rues nord, et offre une vue dégagée sur le pont de Williamsburg et le quartier de Midtown.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_d%27%C3%89tat_de_l%27East_River</t>
+          <t>Parc_d'État_de_l'East_River</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est construit à l'ancien emplacement du Brooklyn Eastern District Terminal (en), un terminal ferroviaire ouvert en 1870 sous le nom de Palmer's Dock. Il est adjacent au parc municipal de Bushwick Inlet (en).
-Le parc ouvre le 26 mai 2007[3]. Contrairement aux autres parcs alentour, il ferme à la nuit tombante. Les chiens et les bicyclettes y sont interdits par la loi sur les parcs d'État.
-En 2009, les concerts du McCarren Park Pool (en) sont déplacés au parc d'État de l'East River[4].
+Le parc ouvre le 26 mai 2007. Contrairement aux autres parcs alentour, il ferme à la nuit tombante. Les chiens et les bicyclettes y sont interdits par la loi sur les parcs d'État.
+En 2009, les concerts du McCarren Park Pool (en) sont déplacés au parc d'État de l'East River.
 Le parc est surnommé Williamsburg Waterfront.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_d%27%C3%89tat_de_l%27East_River</t>
+          <t>Parc_d'État_de_l'East_River</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Le panneau d'entrée
